--- a/biology/Médecine/Johannes_Hartlieb/Johannes_Hartlieb.xlsx
+++ b/biology/Médecine/Johannes_Hartlieb/Johannes_Hartlieb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Hartlieb (né vers 1410, mort le 18 mai 1468) est un médecin de Bavière, appartenant probablement à une famille de Neubourg-sur-le-Danube.
 Il était au service de Louis VII de Bavière et de Albert VI d'Autriche dans les années 1430, puis de Albert III de Bavière à partir de 1440, enfin de son plus jeune fils, Sigismond de Bavière à partir de 1456. En 1444, il se marie à Sibilla, peut-être la fille d'Albert et d'Agnès Bernauer.
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Onomancie (18 manuscrits, Heidelberger Schicksalsbuch CPG 832, CPG 408)
 Das puch aller verpoten kunst, ungelaubens und der zaubrey, années 1450, CPG 478, 78 foll. (in the hand of Clara Hätzlerin), 1465, éd. Eisermann and Graf (1989).
